--- a/CashFlow/TDOC_cashflow.xlsx
+++ b/CashFlow/TDOC_cashflow.xlsx
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-99482000.0</v>
+        <v>112000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-87995000.0</v>
+        <v>86000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>8665000.0</v>
+        <v>42081000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>15191000.0</v>
+        <v>32347000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>11277000.0</v>
+        <v>19779000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>14572000.0</v>
